--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value441.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value441.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.526352713143369</v>
+        <v>1.9494788646698</v>
       </c>
       <c r="B1">
-        <v>1.663442069803893</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.667027778666654</v>
+        <v>2.614804983139038</v>
       </c>
       <c r="D1">
-        <v>1.997006234322046</v>
+        <v>1.215245485305786</v>
       </c>
       <c r="E1">
-        <v>2.333999645309735</v>
+        <v>0.8852695226669312</v>
       </c>
     </row>
   </sheetData>
